--- a/TEST CASE.xlsx
+++ b/TEST CASE.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\USM ODL\SEM 4\CST236\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C73206C-2640-4DAA-A736-12D179F0A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD099E-7762-4AB9-B432-2EEBB32B32CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="11556" xr2:uid="{8BC4194F-1A6F-414D-A21B-455268550589}"/>
+    <workbookView xWindow="-96" yWindow="780" windowWidth="17280" windowHeight="11556" xr2:uid="{8BC4194F-1A6F-414D-A21B-455268550589}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FULL CIRCUIT" sheetId="1" r:id="rId1"/>
+    <sheet name="SERIAL TO PARALLEL" sheetId="2" r:id="rId2"/>
+    <sheet name="DISPLAY BUFFER" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="25">
   <si>
     <t>CLK_IN</t>
   </si>
@@ -69,15 +71,63 @@
   <si>
     <t>EXPECTED OUTPUT: 97</t>
   </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>SERIAL_IN</t>
+  </si>
+  <si>
+    <t>PARALLEL_OUT</t>
+  </si>
+  <si>
+    <t>DISP_EN</t>
+  </si>
+  <si>
+    <t>0xFEFC</t>
+  </si>
+  <si>
+    <t>0x1FC</t>
+  </si>
+  <si>
+    <t>0xE0FC</t>
+  </si>
+  <si>
+    <t>0x1FE</t>
+  </si>
+  <si>
+    <t>0xB601</t>
+  </si>
+  <si>
+    <t>0xDA01</t>
+  </si>
+  <si>
+    <t>PARALLEL_IN</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUT</t>
+  </si>
+  <si>
+    <t>0xB660</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -422,7 +472,7 @@
   <dimension ref="B1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B2" sqref="B2:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2221,4 +2271,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9CCCB7-388C-4E37-9DD7-C031178E3C4B}">
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EAA620-7BFF-43D0-B5F6-EB053A311B64}">
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>